--- a/questions.xlsx
+++ b/questions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>QuestionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,51 +58,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孫策生於那一年?</t>
-  </si>
-  <si>
-    <t>曹操生於那一年?</t>
-  </si>
-  <si>
     <t>Option2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公元118年</t>
-  </si>
-  <si>
-    <t>公元128年</t>
-  </si>
-  <si>
-    <t>公元138年</t>
-  </si>
-  <si>
-    <t>公元158年</t>
-  </si>
-  <si>
-    <t>公元188年</t>
-  </si>
-  <si>
-    <t>公元168年</t>
-  </si>
-  <si>
-    <t>一二三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
+    <t>"地公將軍"是指誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"百步穿楊"描述的是哪位武將?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟獲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃忠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫策出生在哪一年?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國演義》中，"空城計"出自何人之手?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龐統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G4" tableType="xml" connectionId="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G5" tableType="xml" connectionId="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="QuestionID" name="QuestionID" totalsRowFunction="sum">
       <xmlColumnPr mapId="1" xpath="/QData/Question/QuestionID" xmlDataType="integer"/>
@@ -497,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -526,7 +558,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -540,22 +572,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,22 +595,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,22 +618,45 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>QuestionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,27 +102,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>西元152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元162</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元172</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元182</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國演義》中，"空城計"出自何人之手?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龐統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫權出生在哪一年?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國名駒"的盧"是誰的坐騎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被曹操稱為"吾家千里駒"的是以下哪一個人?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹洪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰對呂蒙有士別三日，刮目相看的評價？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魯粛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>孫策出生在哪一年?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西元152</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西元162</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西元172</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西元182</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《三國演義》中，"空城計"出自何人之手?</t>
+    <t>西元145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬超的坐騎是下面哪一匹?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>裡飛沙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國中, 痛駡呂布是"三姓家奴"的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張苞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張郃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國中, "過五關斬六將"的主角是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典偉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許諸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備剛出道從事的工作是什麼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"倚天劍"是誰的武器?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"丈八蛇矛"是誰的武器?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張飛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呂布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"雙股劍"是誰的武器?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫尚香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國志》的作者是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳壽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅貫中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯楙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾有"百騎劫魏營的武將是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃蓋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘寧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"功蓋三分國, 名成八陣圖"指的是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫堅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -130,11 +410,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>龐統</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭嘉</t>
+    <t>司馬懿誅殺誰之後, 掌握了魏國的軍政大權?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹彰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸遜的兒子是下面哪一位?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下誰是"河北雙雄"中的一員?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文欽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文鴦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏真卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫魯班的第一任丈夫是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全琮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫峻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周循</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國演義》中，在長板坡被張飛怒吼一聲而嚇得墜馬的是?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,18 +537,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -237,13 +603,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G5" tableType="xml" connectionId="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G25" tableType="xml" connectionId="1">
+  <autoFilter ref="A1:G25"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="QuestionID" name="QuestionID" totalsRowFunction="sum">
       <xmlColumnPr mapId="1" xpath="/QData/Question/QuestionID" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="QuestionText" name="QuestionText">
+    <tableColumn id="2" uniqueName="QuestionText" name="QuestionText" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/QData/Question/QuestionText" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" uniqueName="Answer" name="Answer">
@@ -529,16 +895,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" customWidth="1"/>
@@ -548,7 +914,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -571,7 +937,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2">
@@ -594,7 +960,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3">
@@ -617,46 +983,483 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>22</v>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
   <si>
     <t>QuestionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,19 +230,471 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三國中, 痛駡呂布是"三姓家奴"的是?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張苞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張飛</t>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備剛出道從事的工作是什麼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打鐵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>說書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編草鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"倚天劍"是誰的武器?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國志》的作者是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹雪芹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳壽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅貫中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金庸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯尚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯楙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯傑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾有"百騎劫魏營的武將是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趙雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃蓋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘寧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬懿誅殺誰之後, 掌握了魏國的軍政大權?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹彰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹松</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸遜的兒子是下面哪一位?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸雲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陸抗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下誰是"河北雙雄"中的一員?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文欽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文鴦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏真卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫魯班的第一任丈夫是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全琮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫休</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫峻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周循</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《三國演義》中，在長板坡被張飛怒吼一聲而嚇得墜馬的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張遼字什麼?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子仲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子義</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭祖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文遠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面關於青龍偃月刀哪一項說法是錯誤的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀成之初曾染過青龍血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽持有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關興使用過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精鋼鑄做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國名駒"爪黃飛電"是誰的坐騎?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫權</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國演義中, 十勝十敗論是誰提出的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賈詡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫權於何年接受魏國的冊封, 成為吳王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元222年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元221年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元223年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元220年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備出生在哪一年?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元151</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元161</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備入蜀後娶了誰的妹妹?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜竺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘寜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田豐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>關索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操於那場戰役中擊敗了袁譚?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國中何人在戰場上殺了淩統的父親?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛城之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邯鄲之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽州之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南皮之戰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下不屬於魏國"五子良將"的武將是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張遼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三國志中, 四勝四敗論是誰提出的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>諸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賈詡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉備死時的年齡是多少?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操於那場戰役中擊敗了尹楷?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉禪的母親是誰 ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糜夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘夫人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"威震逍遙津"描述的是位五子良將的事蹟?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>樂進</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>誰最後統一了三國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司馬師</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向曹操獻"二虎競食"及"驅虎吞狼"之計的是誰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程昱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,67 +702,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三國中, "過五關斬六將"的主角是誰?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典偉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>許諸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉備剛出道從事的工作是什麼?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打鐵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>放牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>說書</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編草鞋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"倚天劍"是誰的武器?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司馬懿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趙雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"丈八蛇矛"是誰的武器?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>張飛</t>
+    <t>典韋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏國的末代皇帝是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹髦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹植</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹奐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操出生在哪一年?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西元155</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七星寶刀原為何人所有?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -318,179 +754,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>馬超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"雙股劍"是誰的武器?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫尚香</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《三國志》的作者是誰?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹雪芹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陳壽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅貫中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金庸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯霸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯尚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯楙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯傑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曾有"百騎劫魏營的武將是?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>趙雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃蓋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>關羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘寧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"功蓋三分國, 名成八陣圖"指的是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫堅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劉備</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>諸葛亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司馬懿誅殺誰之後, 掌握了魏國的軍政大權?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹彰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹睿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹松</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸遜的兒子是下面哪一位?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸機</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸雲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸績</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陸抗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下誰是"河北雙雄"中的一員?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文欽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文鴦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏真卿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫魯班的第一任丈夫是?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全琮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫峻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周循</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《三國演義》中，在長板坡被張飛怒吼一聲而嚇得墜馬的是?</t>
+    <t>董卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王允</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,8 +871,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G25" tableType="xml" connectionId="1">
-  <autoFilter ref="A1:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G40" tableType="xml" connectionId="1">
+  <autoFilter ref="A1:G40"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="QuestionID" name="QuestionID" totalsRowFunction="sum">
       <xmlColumnPr mapId="1" xpath="/QData/Question/QuestionID" xmlDataType="integer"/>
@@ -895,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1145,22 +1413,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1168,13 +1436,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>56</v>
@@ -1194,7 +1462,7 @@
         <v>59</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>60</v>
@@ -1209,18 +1477,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
         <v>64</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>65</v>
@@ -1240,7 +1508,7 @@
         <v>68</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
         <v>69</v>
@@ -1249,33 +1517,33 @@
         <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1283,45 +1551,45 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="C18">
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1329,22 +1597,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,22 +1620,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
@@ -1375,22 +1643,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1398,22 +1666,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G22" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1421,22 +1689,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G23" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1444,22 +1712,390 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24">
         <v>4</v>
       </c>
       <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>124</v>
+      </c>
+      <c r="E26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="E30" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>64</v>
+      </c>
+      <c r="E31">
+        <v>65</v>
+      </c>
+      <c r="F31">
+        <v>66</v>
+      </c>
+      <c r="G31">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" t="s">
+        <v>162</v>
+      </c>
+      <c r="F36" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" t="s">
         <v>112</v>
       </c>
-      <c r="G24" t="s">
-        <v>113</v>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" t="s">
+        <v>171</v>
+      </c>
+      <c r="G38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>174</v>
+      </c>
+      <c r="E39" t="s">
+        <v>175</v>
+      </c>
+      <c r="F39" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="278">
   <si>
     <t>QuestionID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1063,6 +1063,86 @@
   </si>
   <si>
     <t>劉焉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬騰曾被朝廷授予什麼官職?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎮西將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵西將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鎮東將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徵東將軍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘇雙、張世平兩人是從事什職業的?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>賣酒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打鐵匠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>販馬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屠夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牢關戰役登場時, 孫堅頭戴著的是?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色的頭巾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劉焉發榜招軍時, 劉備多少歲?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二十八歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三十六歲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四十二歲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,8 +1249,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G59" tableType="xml" connectionId="1">
-  <autoFilter ref="A1:G59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="表格5" displayName="表格5" ref="A1:G63" tableType="xml" connectionId="1">
+  <autoFilter ref="A1:G63"/>
   <tableColumns count="7">
     <tableColumn id="1" uniqueName="QuestionID" name="QuestionID" totalsRowFunction="sum">
       <xmlColumnPr mapId="1" xpath="/QData/Question/QuestionID" xmlDataType="integer"/>
@@ -1461,9 +1541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:G63"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2448,7 +2530,7 @@
         <v>187</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="s">
         <v>188</v>
@@ -2829,6 +2911,98 @@
       </c>
       <c r="G59" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>259</v>
+      </c>
+      <c r="E60" t="s">
+        <v>260</v>
+      </c>
+      <c r="F60" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" t="s">
+        <v>265</v>
+      </c>
+      <c r="F61" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" t="s">
+        <v>270</v>
+      </c>
+      <c r="F62" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E63" t="s">
+        <v>275</v>
+      </c>
+      <c r="F63" t="s">
+        <v>276</v>
+      </c>
+      <c r="G63" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\textXML\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1198,7 +1193,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1533,7 +1528,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1543,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:G63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1840,7 +1835,7 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>63</v>
